--- a/biology/Zoologie/Capheris_crassimana/Capheris_crassimana.xlsx
+++ b/biology/Zoologie/Capheris_crassimana/Capheris_crassimana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capheris crassimana est une espèce d'araignées aranéomorphes de la famille des Zodariidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capheris crassimana est une espèce d'araignées aranéomorphes de la famille des Zodariidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CCette espèce se rencontre en Namibie, en Angola, au Botswana et en Afrique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CCette espèce se rencontre en Namibie, en Angola, au Botswana et en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Jocqué en 1991 mesure 9,58 mm et la femelle 11,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Jocqué en 1991 mesure 9,58 mm et la femelle 11,5 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1887 : Études arachnologiques. 20e Mémoire. XXVIII. Arachnides recuellis dans le sud de l'Afrique par M. le docteur Hans Schinz. Annales de la Société Entomologique de France, sér. 6, vol. 7, p. 369-384 (texte intégral).</t>
         </is>
